--- a/Data/Repetidos.xlsx
+++ b/Data/Repetidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdtorres\Documents\Homicide_Esri\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E9675D-76C4-4FFA-8111-F277A97055D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9888FC-7F5F-48A0-AF4F-531B62AFE4EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$C$1:$C$149</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="134">
   <si>
     <t>CUNDINAMARCA</t>
   </si>
@@ -61,9 +61,6 @@
     <t>MIRAFLORES</t>
   </si>
   <si>
-    <t>TASCO</t>
-  </si>
-  <si>
     <t>SAN CARLOS</t>
   </si>
   <si>
@@ -88,12 +85,6 @@
     <t>ARMENIA</t>
   </si>
   <si>
-    <t>TARSO</t>
-  </si>
-  <si>
-    <t>SANTUARIO</t>
-  </si>
-  <si>
     <t>CONCORDIA</t>
   </si>
   <si>
@@ -214,9 +205,6 @@
     <t>QUINDIO</t>
   </si>
   <si>
-    <t>RICAURTE (COLOSO)</t>
-  </si>
-  <si>
     <t>TOLIMA</t>
   </si>
   <si>
@@ -229,9 +217,6 @@
     <t>RIOSUCIO</t>
   </si>
   <si>
-    <t>EL CARMEN</t>
-  </si>
-  <si>
     <t>AMAZONAS</t>
   </si>
   <si>
@@ -286,15 +271,9 @@
     <t>BELÉN</t>
   </si>
   <si>
-    <t>GACHANCIPÁ</t>
-  </si>
-  <si>
     <t>BOYACÁ</t>
   </si>
   <si>
-    <t>GACHANTIVÁ</t>
-  </si>
-  <si>
     <t>PÁEZ</t>
   </si>
   <si>
@@ -406,16 +385,46 @@
     <t>05679</t>
   </si>
   <si>
-    <t>05697</t>
-  </si>
-  <si>
-    <t>05792</t>
-  </si>
-  <si>
     <t>05856</t>
   </si>
   <si>
     <t>05861</t>
+  </si>
+  <si>
+    <t>ALBÁN</t>
+  </si>
+  <si>
+    <t>ALBÁN (San José)</t>
+  </si>
+  <si>
+    <t>05055</t>
+  </si>
+  <si>
+    <t>ARGELIA</t>
+  </si>
+  <si>
+    <t>05400</t>
+  </si>
+  <si>
+    <t>MANAURE</t>
+  </si>
+  <si>
+    <t>MANAURE BALCÓN DEL CESAR</t>
+  </si>
+  <si>
+    <t>PROVIDENCIA</t>
+  </si>
+  <si>
+    <t>PROVIDENCIA (Santa Isabel)</t>
+  </si>
+  <si>
+    <t>SAN CAYETANO</t>
+  </si>
+  <si>
+    <t>TOLEDO</t>
+  </si>
+  <si>
+    <t>05819</t>
   </si>
 </sst>
 </file>
@@ -1257,11 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1234BF35-E54B-4497-99E3-5A818DEE2F6B}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,464 +1279,464 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>25019</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1">
+        <v>52019</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2">
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="1">
         <v>18029</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3">
-        <v>68020</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4">
-        <v>44035</v>
-      </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>68020</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44035</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>63</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6">
-        <v>63001</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>19</v>
-      </c>
       <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7">
-        <v>19075</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8">
-        <v>66075</v>
+        <v>34</v>
+      </c>
+      <c r="C8" s="1">
+        <v>76054</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1">
+        <v>19050</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>68</v>
-      </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10">
-        <v>68077</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11">
-        <v>52083</v>
+        <v>59</v>
+      </c>
+      <c r="C11" s="1">
+        <v>63001</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12">
-        <v>15087</v>
+        <v>45</v>
+      </c>
+      <c r="C12" s="1">
+        <v>19075</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1">
+        <v>66075</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>68</v>
-      </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14">
-        <v>68092</v>
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15">
-        <v>68101</v>
+        <v>25</v>
+      </c>
+      <c r="C15" s="1">
+        <v>68077</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16">
-        <v>19100</v>
+        <v>67</v>
+      </c>
+      <c r="C16" s="1">
+        <v>52083</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17">
-        <v>76100</v>
+        <v>82</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15087</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18">
-        <v>15106</v>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>68092</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>68101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1">
+        <v>19100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1">
+        <v>76100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1">
+        <v>15106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20">
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1">
         <v>15109</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21">
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="1">
         <v>23079</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22">
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="1">
         <v>63111</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>70</v>
       </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1">
         <v>70110</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D28" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>25120</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25">
-        <v>68121</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26">
-        <v>13140</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>95</v>
-      </c>
-      <c r="B27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27">
-        <v>95015</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>15</v>
-      </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28">
-        <v>15131</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>108</v>
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>25120</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>110</v>
+        <v>25</v>
+      </c>
+      <c r="C30" s="1">
+        <v>68121</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31">
-        <v>76130</v>
+        <v>88</v>
+      </c>
+      <c r="C31" s="1">
+        <v>13140</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32">
-        <v>52203</v>
+        <v>66</v>
+      </c>
+      <c r="C32" s="1">
+        <v>95015</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33">
-        <v>86219</v>
+        <v>82</v>
+      </c>
+      <c r="C33" s="1">
+        <v>15131</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1736,304 +1744,304 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35">
-        <v>68207</v>
+        <v>84</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>112</v>
+        <v>34</v>
+      </c>
+      <c r="C36" s="1">
+        <v>76130</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37">
-        <v>47205</v>
+        <v>67</v>
+      </c>
+      <c r="C37" s="1">
+        <v>52203</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38">
-        <v>52215</v>
+        <v>56</v>
+      </c>
+      <c r="C38" s="1">
+        <v>86219</v>
       </c>
       <c r="D38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1">
+        <v>68207</v>
+      </c>
+      <c r="D40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="1">
+        <v>47205</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="1">
+        <v>52215</v>
+      </c>
+      <c r="D43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>63</v>
       </c>
-      <c r="B39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39">
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="1">
         <v>63212</v>
       </c>
-      <c r="D39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>13</v>
       </c>
-      <c r="B40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40">
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="1">
         <v>13212</v>
       </c>
-      <c r="D40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>54</v>
-      </c>
-      <c r="B41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41">
-        <v>54245</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>25258</v>
+      </c>
+      <c r="D46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>27</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42">
-        <v>27245</v>
-      </c>
-      <c r="D42" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="1">
+        <v>13268</v>
+      </c>
+      <c r="D47" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
         <v>25</v>
       </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>25258</v>
-      </c>
-      <c r="D43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44">
-        <v>13268</v>
-      </c>
-      <c r="D44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>68</v>
-      </c>
-      <c r="B45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45">
+      <c r="C48" s="1">
         <v>68250</v>
       </c>
-      <c r="D45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="D48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46">
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="1">
         <v>47258</v>
       </c>
-      <c r="D46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="D49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>52</v>
       </c>
-      <c r="B47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47">
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="1">
         <v>52260</v>
       </c>
-      <c r="D47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>19</v>
       </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48">
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="1">
         <v>19256</v>
       </c>
-      <c r="D48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="D51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>18</v>
       </c>
-      <c r="B49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49">
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="1">
         <v>18001</v>
       </c>
-      <c r="D49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="D52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>19</v>
       </c>
-      <c r="B50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50">
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="1">
         <v>19290</v>
       </c>
-      <c r="D50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>25</v>
-      </c>
-      <c r="B51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>25295</v>
-      </c>
-      <c r="D51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>15</v>
-      </c>
-      <c r="B52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52">
-        <v>15293</v>
-      </c>
-      <c r="D52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>25</v>
-      </c>
-      <c r="B53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>25312</v>
-      </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>113</v>
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>25312</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55">
-        <v>50313</v>
+        <v>16</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -2041,618 +2049,618 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="1">
+        <v>50313</v>
+      </c>
+      <c r="D56" t="s">
         <v>5</v>
       </c>
-      <c r="B56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>68</v>
       </c>
-      <c r="B57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57">
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="1">
         <v>68320</v>
       </c>
-      <c r="D57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>41</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="1">
+        <v>41319</v>
+      </c>
+      <c r="D59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="1">
+        <v>47318</v>
+      </c>
+      <c r="D60" t="s">
         <v>53</v>
       </c>
-      <c r="C58">
-        <v>41319</v>
-      </c>
-      <c r="D58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>47</v>
-      </c>
-      <c r="B59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59">
-        <v>47318</v>
-      </c>
-      <c r="D59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>50</v>
       </c>
-      <c r="B60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60">
+      <c r="B61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="1">
         <v>50318</v>
       </c>
-      <c r="D60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>15</v>
-      </c>
-      <c r="B61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61">
-        <v>15368</v>
-      </c>
       <c r="D61" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="1">
+        <v>15368</v>
+      </c>
+      <c r="D62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>5</v>
       </c>
-      <c r="B62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>68</v>
       </c>
-      <c r="B63" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63">
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="1">
         <v>68397</v>
       </c>
-      <c r="D63" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>20</v>
       </c>
-      <c r="B64" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64">
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="1">
         <v>20621</v>
       </c>
-      <c r="D64" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="D65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>76</v>
-      </c>
-      <c r="B65" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65">
-        <v>76400</v>
-      </c>
-      <c r="D65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>52</v>
-      </c>
-      <c r="B66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66">
-        <v>52399</v>
-      </c>
-      <c r="D66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>70</v>
       </c>
       <c r="B67" t="s">
         <v>34</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
+        <v>76400</v>
+      </c>
+      <c r="D67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>52</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="1">
+        <v>52399</v>
+      </c>
+      <c r="D68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="1">
         <v>70400</v>
       </c>
-      <c r="D67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="D69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>25</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>0</v>
       </c>
-      <c r="C68">
+      <c r="C70" s="1">
         <v>25402</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D70" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>19</v>
       </c>
-      <c r="B69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69">
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="1">
         <v>19397</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D71" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>15</v>
       </c>
-      <c r="B70" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70">
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="1">
         <v>15401</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D72" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>76</v>
       </c>
-      <c r="B71" t="s">
-        <v>37</v>
-      </c>
-      <c r="C71">
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="1">
         <v>76403</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>91</v>
       </c>
-      <c r="B72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72">
+      <c r="B74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="1">
         <v>91430</v>
       </c>
-      <c r="D72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="D74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>44</v>
+      </c>
+      <c r="B75" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75">
+        <v>44560</v>
+      </c>
+      <c r="D75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76">
+        <v>20443</v>
+      </c>
+      <c r="D76" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>15</v>
       </c>
-      <c r="B73" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73">
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="1">
         <v>15455</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D77" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>95</v>
       </c>
-      <c r="B74" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74">
+      <c r="B78" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="1">
         <v>95200</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D78" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>19</v>
       </c>
-      <c r="B75" t="s">
-        <v>48</v>
-      </c>
-      <c r="C75">
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="1">
         <v>19473</v>
       </c>
-      <c r="D75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>13</v>
-      </c>
-      <c r="B76" t="s">
-        <v>95</v>
-      </c>
-      <c r="C76">
-        <v>13473</v>
-      </c>
-      <c r="D76" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>25</v>
-      </c>
-      <c r="B77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>25473</v>
-      </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>52</v>
-      </c>
-      <c r="B78" t="s">
-        <v>72</v>
-      </c>
-      <c r="C78">
-        <v>52473</v>
-      </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>25</v>
-      </c>
-      <c r="B79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>25483</v>
-      </c>
       <c r="D79" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="1">
+        <v>13473</v>
+      </c>
+      <c r="D80" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>25</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>25473</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>52</v>
+      </c>
+      <c r="B82" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="1">
+        <v>52473</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1">
+        <v>25483</v>
+      </c>
+      <c r="D83" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>5</v>
       </c>
-      <c r="B80" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D80" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D84" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>52</v>
       </c>
-      <c r="B81" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81">
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" s="1">
         <v>52480</v>
       </c>
-      <c r="D81" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>15</v>
-      </c>
-      <c r="B82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C82">
-        <v>15514</v>
-      </c>
-      <c r="D82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>19</v>
-      </c>
-      <c r="B83" t="s">
-        <v>48</v>
-      </c>
-      <c r="C83">
-        <v>19517</v>
-      </c>
-      <c r="D83" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>17</v>
-      </c>
-      <c r="B84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84">
-        <v>17524</v>
-      </c>
-      <c r="D84" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>41</v>
-      </c>
-      <c r="B85" t="s">
-        <v>53</v>
-      </c>
-      <c r="C85">
-        <v>41530</v>
-      </c>
       <c r="D85" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="1">
+        <v>15514</v>
+      </c>
+      <c r="D86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>19</v>
+      </c>
+      <c r="B87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="1">
+        <v>19517</v>
+      </c>
+      <c r="D87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="1">
+        <v>17524</v>
+      </c>
+      <c r="D88" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>41</v>
+      </c>
+      <c r="B89" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" s="1">
+        <v>41530</v>
+      </c>
+      <c r="D89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>52</v>
+      </c>
+      <c r="B90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90">
+        <v>52565</v>
+      </c>
+      <c r="D90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91">
+        <v>88564</v>
+      </c>
+      <c r="D91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>8</v>
       </c>
-      <c r="B86" t="s">
-        <v>91</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D86" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="B92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>94</v>
       </c>
-      <c r="B87" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87">
+      <c r="B93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" s="1">
         <v>94884</v>
       </c>
-      <c r="D87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>50</v>
       </c>
-      <c r="B88" t="s">
-        <v>57</v>
-      </c>
-      <c r="C88">
+      <c r="B94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="1">
         <v>50590</v>
       </c>
-      <c r="D88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>18</v>
-      </c>
-      <c r="B89" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89">
-        <v>18592</v>
-      </c>
-      <c r="D89" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>76</v>
-      </c>
-      <c r="B90" t="s">
-        <v>37</v>
-      </c>
-      <c r="C90">
-        <v>76606</v>
-      </c>
-      <c r="D90" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>50</v>
-      </c>
-      <c r="B91" t="s">
-        <v>57</v>
-      </c>
-      <c r="C91">
-        <v>50606</v>
-      </c>
-      <c r="D91" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>25</v>
-      </c>
-      <c r="B92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>25612</v>
-      </c>
-      <c r="D92" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>52</v>
-      </c>
-      <c r="B93" t="s">
-        <v>72</v>
-      </c>
-      <c r="C93">
-        <v>52612</v>
-      </c>
-      <c r="D93" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>70</v>
-      </c>
-      <c r="B94" t="s">
-        <v>34</v>
-      </c>
-      <c r="C94">
-        <v>70204</v>
-      </c>
       <c r="D94" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>118</v>
+        <v>85</v>
+      </c>
+      <c r="C95" s="1">
+        <v>18592</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
-      </c>
-      <c r="C96">
-        <v>68615</v>
+        <v>34</v>
+      </c>
+      <c r="C96" s="1">
+        <v>76606</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97">
-        <v>17614</v>
+        <v>54</v>
+      </c>
+      <c r="C97" s="1">
+        <v>50606</v>
       </c>
       <c r="D97" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
-      </c>
-      <c r="C98">
-        <v>27615</v>
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>25612</v>
       </c>
       <c r="D98" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>91</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>119</v>
+        <v>67</v>
+      </c>
+      <c r="C99" s="1">
+        <v>52612</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2660,125 +2668,125 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B101" t="s">
-        <v>47</v>
-      </c>
-      <c r="C101">
-        <v>85300</v>
+        <v>25</v>
+      </c>
+      <c r="C101" s="1">
+        <v>68615</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>17</v>
       </c>
       <c r="B102" t="s">
         <v>9</v>
       </c>
-      <c r="C102">
-        <v>17653</v>
+      <c r="C102" s="1">
+        <v>17614</v>
       </c>
       <c r="D102" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
-      </c>
-      <c r="C103">
-        <v>47675</v>
+        <v>77</v>
+      </c>
+      <c r="C103" s="1">
+        <v>27615</v>
       </c>
       <c r="D103" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>5</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>85</v>
+      </c>
+      <c r="B106" t="s">
+        <v>44</v>
+      </c>
+      <c r="C106" s="1">
+        <v>85300</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>17</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D104" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>88</v>
-      </c>
-      <c r="B105" t="s">
-        <v>84</v>
-      </c>
-      <c r="C105">
-        <v>88001</v>
-      </c>
-      <c r="D105" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>25</v>
-      </c>
-      <c r="B106" t="s">
-        <v>0</v>
-      </c>
-      <c r="C106">
-        <v>25649</v>
-      </c>
-      <c r="D106" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="1">
+        <v>17653</v>
+      </c>
+      <c r="D107" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>47</v>
+      </c>
+      <c r="B108" t="s">
         <v>52</v>
       </c>
-      <c r="B107" t="s">
-        <v>72</v>
-      </c>
-      <c r="C107">
-        <v>52685</v>
-      </c>
-      <c r="D107" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>23</v>
-      </c>
-      <c r="B108" t="s">
-        <v>76</v>
-      </c>
-      <c r="C108">
-        <v>23678</v>
+      <c r="C108" s="1">
+        <v>47675</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2786,503 +2794,503 @@
         <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="B110" t="s">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>25658</v>
+        <v>79</v>
+      </c>
+      <c r="C110" s="1">
+        <v>88001</v>
       </c>
       <c r="D110" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>123</v>
+        <v>0</v>
+      </c>
+      <c r="C111" s="1">
+        <v>25649</v>
       </c>
       <c r="D111" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
-      </c>
-      <c r="C112">
-        <v>86755</v>
+        <v>67</v>
+      </c>
+      <c r="C112" s="1">
+        <v>52685</v>
       </c>
       <c r="D112" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
+        <v>23</v>
+      </c>
+      <c r="B113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C113" s="1">
+        <v>23678</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>5</v>
       </c>
-      <c r="B113" t="s">
-        <v>17</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>25</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>73</v>
-      </c>
-      <c r="B114" t="s">
-        <v>64</v>
-      </c>
-      <c r="C114">
-        <v>73678</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>25653</v>
+      </c>
+      <c r="D115" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>54</v>
+      </c>
+      <c r="B116" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116">
+        <v>54673</v>
+      </c>
+      <c r="D116" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>25</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>20</v>
-      </c>
-      <c r="B115" t="s">
-        <v>52</v>
-      </c>
-      <c r="C115">
-        <v>20770</v>
-      </c>
-      <c r="D115" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>50</v>
-      </c>
-      <c r="B116" t="s">
-        <v>57</v>
-      </c>
-      <c r="C116">
-        <v>50689</v>
-      </c>
-      <c r="D116" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>68</v>
-      </c>
       <c r="B117" t="s">
-        <v>28</v>
-      </c>
-      <c r="C117">
-        <v>68686</v>
+        <v>0</v>
+      </c>
+      <c r="C117" s="1">
+        <v>25658</v>
       </c>
       <c r="D117" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>86</v>
       </c>
-      <c r="B118" t="s">
-        <v>59</v>
-      </c>
-      <c r="C118">
-        <v>86757</v>
-      </c>
-      <c r="D118" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>52</v>
-      </c>
       <c r="B119" t="s">
-        <v>72</v>
-      </c>
-      <c r="C119">
-        <v>52693</v>
+        <v>56</v>
+      </c>
+      <c r="C119" s="1">
+        <v>86755</v>
       </c>
       <c r="D119" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>95</v>
-      </c>
-      <c r="C120">
-        <v>13670</v>
+        <v>16</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D120" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>125</v>
+        <v>60</v>
+      </c>
+      <c r="C121" s="1">
+        <v>73678</v>
       </c>
       <c r="D121" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
-      </c>
-      <c r="C122">
-        <v>76670</v>
+        <v>49</v>
+      </c>
+      <c r="C122" s="1">
+        <v>20770</v>
       </c>
       <c r="D122" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B123" t="s">
-        <v>34</v>
-      </c>
-      <c r="C123">
-        <v>70717</v>
+        <v>54</v>
+      </c>
+      <c r="C123" s="1">
+        <v>50689</v>
       </c>
       <c r="D123" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>68</v>
       </c>
       <c r="B124" t="s">
-        <v>28</v>
-      </c>
-      <c r="C124">
-        <v>68705</v>
+        <v>25</v>
+      </c>
+      <c r="C124" s="1">
+        <v>68686</v>
       </c>
       <c r="D124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>126</v>
+        <v>56</v>
+      </c>
+      <c r="C125" s="1">
+        <v>86757</v>
       </c>
       <c r="D125" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>52</v>
       </c>
       <c r="B126" t="s">
-        <v>72</v>
-      </c>
-      <c r="C126">
-        <v>52696</v>
+        <v>67</v>
+      </c>
+      <c r="C126" s="1">
+        <v>52693</v>
       </c>
       <c r="D126" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B127" t="s">
         <v>88</v>
       </c>
-      <c r="C127">
-        <v>15690</v>
+      <c r="C127" s="1">
+        <v>13670</v>
       </c>
       <c r="D127" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>53</v>
-      </c>
-      <c r="C128">
-        <v>41676</v>
+        <v>16</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D128" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="B129" t="s">
-        <v>48</v>
-      </c>
-      <c r="C129">
-        <v>19701</v>
+        <v>34</v>
+      </c>
+      <c r="C129" s="1">
+        <v>76670</v>
       </c>
       <c r="D129" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B130" t="s">
-        <v>95</v>
-      </c>
-      <c r="C130">
-        <v>13683</v>
+        <v>31</v>
+      </c>
+      <c r="C130" s="1">
+        <v>70717</v>
       </c>
       <c r="D130" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B131" t="s">
-        <v>59</v>
-      </c>
-      <c r="C131">
-        <v>86760</v>
+        <v>25</v>
+      </c>
+      <c r="C131" s="1">
+        <v>68705</v>
       </c>
       <c r="D131" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>66</v>
-      </c>
-      <c r="C132">
-        <v>54680</v>
+        <v>16</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D132" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B133" t="s">
-        <v>17</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>127</v>
+        <v>67</v>
+      </c>
+      <c r="C133" s="1">
+        <v>52696</v>
       </c>
       <c r="D133" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>44</v>
-      </c>
-      <c r="C134">
-        <v>66687</v>
+        <v>82</v>
+      </c>
+      <c r="C134" s="1">
+        <v>15690</v>
       </c>
       <c r="D134" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B135" t="s">
-        <v>64</v>
-      </c>
-      <c r="C135">
-        <v>73770</v>
+        <v>50</v>
+      </c>
+      <c r="C135" s="1">
+        <v>41676</v>
       </c>
       <c r="D135" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>19</v>
       </c>
       <c r="B136" t="s">
+        <v>45</v>
+      </c>
+      <c r="C136" s="1">
+        <v>19701</v>
+      </c>
+      <c r="D136" t="s">
         <v>48</v>
       </c>
-      <c r="C136">
-        <v>19780</v>
-      </c>
-      <c r="D136" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="B137" t="s">
-        <v>28</v>
-      </c>
-      <c r="C137">
-        <v>68773</v>
+        <v>88</v>
+      </c>
+      <c r="C137" s="1">
+        <v>13683</v>
       </c>
       <c r="D137" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B138" t="s">
-        <v>48</v>
-      </c>
-      <c r="C138">
-        <v>19785</v>
+        <v>56</v>
+      </c>
+      <c r="C138" s="1">
+        <v>86760</v>
       </c>
       <c r="D138" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B139" t="s">
-        <v>34</v>
-      </c>
-      <c r="C139">
-        <v>70771</v>
+        <v>62</v>
+      </c>
+      <c r="C139" s="1">
+        <v>54680</v>
       </c>
       <c r="D139" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
+      </c>
+      <c r="C140" s="1">
+        <v>73770</v>
       </c>
       <c r="D140" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B141" t="s">
-        <v>88</v>
-      </c>
-      <c r="C141">
-        <v>15790</v>
+        <v>45</v>
+      </c>
+      <c r="C141" s="1">
+        <v>19780</v>
       </c>
       <c r="D141" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B142" t="s">
-        <v>92</v>
-      </c>
-      <c r="C142">
-        <v>18860</v>
+        <v>25</v>
+      </c>
+      <c r="C142" s="1">
+        <v>68773</v>
       </c>
       <c r="D142" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>129</v>
+        <v>45</v>
+      </c>
+      <c r="C143" s="1">
+        <v>19785</v>
       </c>
       <c r="D143" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B144" t="s">
-        <v>0</v>
-      </c>
-      <c r="C144">
-        <v>25506</v>
+        <v>31</v>
+      </c>
+      <c r="C144" s="1">
+        <v>70771</v>
       </c>
       <c r="D144" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3290,104 +3298,142 @@
         <v>5</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D145" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>54</v>
+      </c>
+      <c r="B146" t="s">
+        <v>62</v>
+      </c>
+      <c r="C146">
+        <v>54820</v>
+      </c>
+      <c r="D146" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>18</v>
+      </c>
+      <c r="B147" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" s="1">
+        <v>18860</v>
+      </c>
+      <c r="D147" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D148" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>25</v>
+      </c>
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" s="1">
+        <v>25506</v>
+      </c>
+      <c r="D149" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>68</v>
       </c>
-      <c r="B146" t="s">
-        <v>28</v>
-      </c>
-      <c r="C146">
+      <c r="B151" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151" s="1">
         <v>68872</v>
       </c>
-      <c r="D146" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="D151" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>85</v>
       </c>
-      <c r="B147" t="s">
-        <v>47</v>
-      </c>
-      <c r="C147">
+      <c r="B152" t="s">
+        <v>44</v>
+      </c>
+      <c r="C152" s="1">
         <v>85440</v>
       </c>
-      <c r="D147" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="D152" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>44</v>
       </c>
-      <c r="B148" t="s">
-        <v>54</v>
-      </c>
-      <c r="C148">
+      <c r="B153" t="s">
+        <v>51</v>
+      </c>
+      <c r="C153" s="1">
         <v>44874</v>
       </c>
-      <c r="D148" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="D153" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>13</v>
       </c>
-      <c r="B149" t="s">
-        <v>95</v>
-      </c>
-      <c r="C149">
+      <c r="B154" t="s">
+        <v>88</v>
+      </c>
+      <c r="C154" s="1">
         <v>13873</v>
       </c>
-      <c r="D149" t="s">
-        <v>35</v>
+      <c r="D154" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C149" xr:uid="{8633CBAA-7709-4752-A37F-99F57BF0F0A8}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="5059"/>
-        <filter val="5079"/>
-        <filter val="5093"/>
-        <filter val="5107"/>
-        <filter val="5129"/>
-        <filter val="5206"/>
-        <filter val="5209"/>
-        <filter val="5313"/>
-        <filter val="5315"/>
-        <filter val="5368"/>
-        <filter val="5483"/>
-        <filter val="5615"/>
-        <filter val="5628"/>
-        <filter val="5647"/>
-        <filter val="5649"/>
-        <filter val="5652"/>
-        <filter val="5660"/>
-        <filter val="5664"/>
-        <filter val="5679"/>
-        <filter val="5697"/>
-        <filter val="5792"/>
-        <filter val="5856"/>
-        <filter val="5861"/>
-        <filter val="8141"/>
-        <filter val="8573"/>
-        <filter val="8638"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
